--- a/biology/Médecine/Gul_Mohammed/Gul_Mohammed.xlsx
+++ b/biology/Médecine/Gul_Mohammed/Gul_Mohammed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gul Mohammed (né le 15 février 1957, mort le 1er octobre 1997 à Ballimaran près de Delhi, en Inde) est reconnu par le Livre Guinness des records comme le second plus petit homme du monde ayant été mesuré. En 1990, il mesurait à peine 57,12 cm pour 17 kg[1].
-Très pauvre, il survivait en vendant des biscuits et des bonbons en bord de route, et grâce à l'aide financière d'amis et d'associations caritatives[2].
-Il est mort en 1997 d'une crise cardiaque. Il souffrait de complications respiratoires dues à un tabagisme important[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gul Mohammed (né le 15 février 1957, mort le 1er octobre 1997 à Ballimaran près de Delhi, en Inde) est reconnu par le Livre Guinness des records comme le second plus petit homme du monde ayant été mesuré. En 1990, il mesurait à peine 57,12 cm pour 17 kg.
+Très pauvre, il survivait en vendant des biscuits et des bonbons en bord de route, et grâce à l'aide financière d'amis et d'associations caritatives.
+Il est mort en 1997 d'une crise cardiaque. Il souffrait de complications respiratoires dues à un tabagisme important.
 </t>
         </is>
       </c>
